--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.3916988122593</v>
+        <v>131.1354158754001</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0427924529032</v>
+        <v>179.4252612868871</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6274803311299</v>
+        <v>162.3011661746526</v>
       </c>
       <c r="AD2" t="n">
-        <v>110391.6988122593</v>
+        <v>131135.4158754001</v>
       </c>
       <c r="AE2" t="n">
-        <v>151042.7924529032</v>
+        <v>179425.2612868871</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.866891233647142e-06</v>
+        <v>8.227721107134591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.162326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>136627.4803311299</v>
+        <v>162301.1661746526</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.36805474041252</v>
+        <v>79.11168229500228</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.86174751264313</v>
+        <v>108.2440938770787</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.23985441672163</v>
+        <v>97.91342947901779</v>
       </c>
       <c r="AD3" t="n">
-        <v>58368.05474041252</v>
+        <v>79111.68229500228</v>
       </c>
       <c r="AE3" t="n">
-        <v>79861.74751264314</v>
+        <v>108244.0938770787</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.037464782860194e-06</v>
+        <v>1.189718338769294e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.879774305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>72239.85441672163</v>
+        <v>97913.4294790178</v>
       </c>
     </row>
     <row r="4">
@@ -1864,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.52520935168184</v>
+        <v>79.26883690627159</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.07677338495384</v>
+        <v>108.4591197493894</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.43435852156976</v>
+        <v>98.10793358386593</v>
       </c>
       <c r="AD4" t="n">
-        <v>58525.20935168183</v>
+        <v>79268.83690627159</v>
       </c>
       <c r="AE4" t="n">
-        <v>80076.77338495383</v>
+        <v>108459.1197493894</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.034943899952901e-06</v>
+        <v>1.189292171006152e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.879774305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>72434.35852156977</v>
+        <v>98107.93358386593</v>
       </c>
     </row>
   </sheetData>
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.49499909057627</v>
+        <v>97.50554257770406</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0320765937549</v>
+        <v>133.4113849957029</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.91252402062793</v>
+        <v>120.6787896558035</v>
       </c>
       <c r="AD2" t="n">
-        <v>77494.99909057627</v>
+        <v>97505.54257770407</v>
       </c>
       <c r="AE2" t="n">
-        <v>106032.0765937549</v>
+        <v>133411.3849957029</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.066171240212922e-06</v>
+        <v>1.050534080365331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>95912.52402062793</v>
+        <v>120678.7896558035</v>
       </c>
     </row>
     <row r="3">
@@ -2267,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.3483404968947</v>
+        <v>76.44413533004307</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.09828538115963</v>
+        <v>104.5942384357569</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.74013323252255</v>
+        <v>94.61191111841033</v>
       </c>
       <c r="AD3" t="n">
-        <v>56348.3404968947</v>
+        <v>76444.13533004306</v>
       </c>
       <c r="AE3" t="n">
-        <v>77098.28538115963</v>
+        <v>104594.2384357569</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.126683933546965e-06</v>
+        <v>1.234192714929088e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.940538194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>69740.13323252255</v>
+        <v>94611.91111841034</v>
       </c>
     </row>
   </sheetData>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.3083075676982</v>
+        <v>80.36844659253647</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.25297526261903</v>
+        <v>109.9636542334919</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.11655095687718</v>
+        <v>99.46887740843356</v>
       </c>
       <c r="AD2" t="n">
-        <v>62308.3075676982</v>
+        <v>80368.44659253648</v>
       </c>
       <c r="AE2" t="n">
-        <v>85252.97526261903</v>
+        <v>109963.6542334919</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.861758314351262e-06</v>
+        <v>1.298392331059984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.409288194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>77116.55095687718</v>
+        <v>99468.87740843356</v>
       </c>
     </row>
   </sheetData>
@@ -2861,28 +2861,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.98564480917042</v>
+        <v>72.48236509669378</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.17973795841095</v>
+        <v>99.1735696215239</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.95486472170266</v>
+        <v>89.70858332784951</v>
       </c>
       <c r="AD2" t="n">
-        <v>62985.64480917042</v>
+        <v>72482.36509669379</v>
       </c>
       <c r="AE2" t="n">
-        <v>86179.73795841096</v>
+        <v>99173.5696215239</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.131919852370873e-06</v>
+        <v>1.299280909789429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.138020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77954.86472170266</v>
+        <v>89708.58332784951</v>
       </c>
     </row>
   </sheetData>
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.22881659594305</v>
+        <v>80.83411653007747</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.51245632505521</v>
+        <v>110.6008043859428</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.25582891440764</v>
+        <v>100.0452188445806</v>
       </c>
       <c r="AD2" t="n">
-        <v>63228.81659594305</v>
+        <v>80834.11653007746</v>
       </c>
       <c r="AE2" t="n">
-        <v>86512.45632505522</v>
+        <v>110600.8043859428</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.393568370656942e-06</v>
+        <v>1.25293339957685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.799913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>78255.82891440764</v>
+        <v>100045.2188445806</v>
       </c>
     </row>
   </sheetData>
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.69025338341756</v>
+        <v>103.0416663634495</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1404527156601</v>
+        <v>140.9861537959001</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3424867021294</v>
+        <v>127.530633152967</v>
       </c>
       <c r="AD2" t="n">
-        <v>82690.25338341756</v>
+        <v>103041.6663634494</v>
       </c>
       <c r="AE2" t="n">
-        <v>113140.4527156601</v>
+        <v>140986.1537959001</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.722610199518665e-06</v>
+        <v>9.845643304913996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.630642361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>102342.4867021294</v>
+        <v>127530.633152967</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.74644067313177</v>
+        <v>77.01251279859204</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.64298360522717</v>
+        <v>105.3719175632695</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.23284622257404</v>
+        <v>95.31536964147281</v>
       </c>
       <c r="AD3" t="n">
-        <v>56746.44067313177</v>
+        <v>77012.51279859204</v>
       </c>
       <c r="AE3" t="n">
-        <v>77642.98360522717</v>
+        <v>105371.9175632695</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.116267652852082e-06</v>
+        <v>1.224340476277282e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.918836805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>70232.84622257404</v>
+        <v>95315.36964147282</v>
       </c>
     </row>
   </sheetData>
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.32995455285622</v>
+        <v>90.47965417267795</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3332789084525</v>
+        <v>123.7982545196305</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.75761158809621</v>
+        <v>111.983122860251</v>
       </c>
       <c r="AD2" t="n">
-        <v>73329.95455285622</v>
+        <v>90479.65417267795</v>
       </c>
       <c r="AE2" t="n">
-        <v>100333.2789084525</v>
+        <v>123798.2545196305</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.001004318418049e-06</v>
+        <v>1.202997557697495e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.142795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>90757.61158809622</v>
+        <v>111983.122860251</v>
       </c>
     </row>
   </sheetData>
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.6272793305893</v>
+        <v>75.44162058345516</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.79413885130452</v>
+        <v>103.2225535316469</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.22431226622314</v>
+        <v>93.37113789637625</v>
       </c>
       <c r="AD2" t="n">
-        <v>65627.2793305893</v>
+        <v>75441.62058345517</v>
       </c>
       <c r="AE2" t="n">
-        <v>89794.13885130452</v>
+        <v>103222.5535316469</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.052113800712072e-06</v>
+        <v>1.248981756177515e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.062065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>81224.31226622313</v>
+        <v>93371.13789637625</v>
       </c>
     </row>
     <row r="3">
@@ -4261,28 +4261,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.49707408723088</v>
+        <v>74.04023672128888</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.56530100734899</v>
+        <v>101.3051183067393</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.4488933322817</v>
+        <v>91.63669999819601</v>
       </c>
       <c r="AD3" t="n">
-        <v>54497.07408723088</v>
+        <v>74040.23672128888</v>
       </c>
       <c r="AE3" t="n">
-        <v>74565.30100734899</v>
+        <v>101305.1183067393</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.213126417898765e-06</v>
+        <v>1.277498287116121e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>67448.8933322817</v>
+        <v>91636.69999819601</v>
       </c>
     </row>
   </sheetData>
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.16373031937388</v>
+        <v>92.99752150643268</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.1058435789064</v>
+        <v>127.2433116861391</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.55188236719448</v>
+        <v>115.0993886059572</v>
       </c>
       <c r="AD2" t="n">
-        <v>73163.73031937388</v>
+        <v>92997.52150643268</v>
       </c>
       <c r="AE2" t="n">
-        <v>100105.8435789064</v>
+        <v>127243.3116861391</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.39143667171448e-06</v>
+        <v>1.114610746030517e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.311631944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>90551.88236719448</v>
+        <v>115099.3886059572</v>
       </c>
     </row>
     <row r="3">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.64990760430484</v>
+        <v>75.56895013738423</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.14265868483409</v>
+        <v>103.396771444716</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.87571020686353</v>
+        <v>93.5287286963385</v>
       </c>
       <c r="AD3" t="n">
-        <v>55649.90760430484</v>
+        <v>75568.95013738424</v>
       </c>
       <c r="AE3" t="n">
-        <v>76142.6586848341</v>
+        <v>103396.771444716</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.170195267265784e-06</v>
+        <v>1.25041944503657e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>68875.71020686353</v>
+        <v>93528.7286963385</v>
       </c>
     </row>
   </sheetData>
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.59637420832055</v>
+        <v>124.437968470725</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.0626883723783</v>
+        <v>170.2615182772889</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8405651312644</v>
+        <v>154.0119979364935</v>
       </c>
       <c r="AD2" t="n">
-        <v>93596.37420832056</v>
+        <v>124437.968470725</v>
       </c>
       <c r="AE2" t="n">
-        <v>128062.6883723783</v>
+        <v>170261.5182772889</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.142019473361442e-06</v>
+        <v>8.741092310284223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.971354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115840.5651312644</v>
+        <v>154011.9979364935</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.75369507320301</v>
+        <v>78.34320486632983</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.02115351233188</v>
+        <v>107.1926291563382</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.47948552801871</v>
+        <v>96.9623150754844</v>
       </c>
       <c r="AD3" t="n">
-        <v>57753.69507320301</v>
+        <v>78343.20486632983</v>
       </c>
       <c r="AE3" t="n">
-        <v>79021.15351233188</v>
+        <v>107192.6291563382</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.074805935363821e-06</v>
+        <v>1.202670119760064e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.886284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>71479.48552801872</v>
+        <v>96962.3150754844</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.33162952886739</v>
+        <v>72.93986539857229</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.6531295156687</v>
+        <v>99.7995417180426</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.38307645314508</v>
+        <v>90.27481352603402</v>
       </c>
       <c r="AD2" t="n">
-        <v>63331.62952886739</v>
+        <v>72939.86539857229</v>
       </c>
       <c r="AE2" t="n">
-        <v>86653.1295156687</v>
+        <v>99799.5417180426</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18275875822034e-06</v>
+        <v>1.295221376869058e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.077256944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>78383.07645314508</v>
+        <v>90274.81352603402</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.51419501365267</v>
+        <v>80.84704381201271</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.53467954928684</v>
+        <v>110.618492063398</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.37136978179997</v>
+        <v>100.0612184349244</v>
       </c>
       <c r="AD2" t="n">
-        <v>62514.19501365267</v>
+        <v>80847.04381201271</v>
       </c>
       <c r="AE2" t="n">
-        <v>85534.67954928684</v>
+        <v>110618.492063398</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.971703907293867e-06</v>
+        <v>1.300697103648567e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>77371.36978179996</v>
+        <v>100061.2184349244</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.56997192752884</v>
+        <v>80.503617220514</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.61099598355594</v>
+        <v>110.1486006499978</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.44040268269325</v>
+        <v>99.63617279852217</v>
       </c>
       <c r="AD2" t="n">
-        <v>62569.97192752884</v>
+        <v>80503.617220514</v>
       </c>
       <c r="AE2" t="n">
-        <v>85610.99598355594</v>
+        <v>110148.6006499978</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.664444709786074e-06</v>
+        <v>1.281597431857215e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.572048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>77440.40268269325</v>
+        <v>99636.17279852217</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.55864841897154</v>
+        <v>101.6795078147075</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.7509202959897</v>
+        <v>139.1223883753183</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.75363948180693</v>
+        <v>125.8447428883137</v>
       </c>
       <c r="AD2" t="n">
-        <v>76558.64841897154</v>
+        <v>101679.5078147075</v>
       </c>
       <c r="AE2" t="n">
-        <v>104750.9202959897</v>
+        <v>139122.3883753183</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.358760601951995e-06</v>
+        <v>1.105297598093158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.767795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>94753.63948180692</v>
+        <v>125844.7428883137</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.46786667212992</v>
+        <v>78.3781821508682</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.68075576986746</v>
+        <v>107.2404866201324</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.73999592098076</v>
+        <v>97.00560509010253</v>
       </c>
       <c r="AD2" t="n">
-        <v>68467.86667212991</v>
+        <v>78378.1821508682</v>
       </c>
       <c r="AE2" t="n">
-        <v>93680.75576986746</v>
+        <v>107240.4866201324</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.796069211875849e-06</v>
+        <v>1.194042551545177e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>84739.99592098076</v>
+        <v>97005.60509010253</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.00493863443548</v>
+        <v>74.74004972023837</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.2601836862365</v>
+        <v>102.2626333254721</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.0774573835704</v>
+        <v>92.50283112742198</v>
       </c>
       <c r="AD3" t="n">
-        <v>55004.93863443548</v>
+        <v>74740.04972023837</v>
       </c>
       <c r="AE3" t="n">
-        <v>75260.1836862365</v>
+        <v>102262.6333254721</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.208390863039765e-06</v>
+        <v>1.266485839137474e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.964409722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>68077.45738357041</v>
+        <v>92502.83112742199</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.24928297921197</v>
+        <v>108.7650965240428</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.7465622556993</v>
+        <v>148.8172034415381</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.2226798229114</v>
+        <v>134.614298411375</v>
       </c>
       <c r="AD2" t="n">
-        <v>88249.28297921197</v>
+        <v>108765.0965240428</v>
       </c>
       <c r="AE2" t="n">
-        <v>120746.5622556993</v>
+        <v>148817.2034415381</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.406275275048293e-06</v>
+        <v>9.244128232065079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>109222.6798229115</v>
+        <v>134614.298411375</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.007677754928</v>
+        <v>77.43815044518722</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.00041970550723</v>
+        <v>105.9542937691484</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.55616912310821</v>
+        <v>95.84216467963299</v>
       </c>
       <c r="AD3" t="n">
-        <v>57007.67775492799</v>
+        <v>77438.15044518722</v>
       </c>
       <c r="AE3" t="n">
-        <v>78000.41970550723</v>
+        <v>105954.2937691484</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.12947747826751e-06</v>
+        <v>1.219061196178844e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.888454861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>70556.16912310821</v>
+        <v>95842.16467963299</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.5798946697105</v>
+        <v>124.9084287239314</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.6178491588261</v>
+        <v>170.9052227509671</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.483794783009</v>
+        <v>154.594268158649</v>
       </c>
       <c r="AD2" t="n">
-        <v>100579.8946697105</v>
+        <v>124908.4287239314</v>
       </c>
       <c r="AE2" t="n">
-        <v>137617.8491588261</v>
+        <v>170905.2227509671</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.329660584707755e-06</v>
+        <v>9.280456833395217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>124483.794783009</v>
+        <v>154594.268158649</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.50925402755571</v>
+        <v>71.88758751118603</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.52791907412805</v>
+        <v>98.3597686892974</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.36525451690196</v>
+        <v>88.97245041441769</v>
       </c>
       <c r="AD2" t="n">
-        <v>62509.2540275557</v>
+        <v>71887.58751118602</v>
       </c>
       <c r="AE2" t="n">
-        <v>85527.91907412805</v>
+        <v>98359.7686892974</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.090710064802231e-06</v>
+        <v>1.306415492038121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.198784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>77365.25451690196</v>
+        <v>88972.45041441769</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.99651265034285</v>
+        <v>73.71036639979614</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.56285193504411</v>
+        <v>100.8537751800217</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.20597624161903</v>
+        <v>91.22843242602809</v>
       </c>
       <c r="AD2" t="n">
-        <v>63996.51265034285</v>
+        <v>73710.36639979614</v>
       </c>
       <c r="AE2" t="n">
-        <v>87562.85193504411</v>
+        <v>100853.7751800217</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.173780308616894e-06</v>
+        <v>1.281543499119194e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.044704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>79205.97624161902</v>
+        <v>91228.4324260281</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.92880285153676</v>
+        <v>73.64265660099004</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.47020840117216</v>
+        <v>100.7611316461497</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.12217447659377</v>
+        <v>91.14463066100284</v>
       </c>
       <c r="AD3" t="n">
-        <v>63928.80285153676</v>
+        <v>73642.65660099004</v>
       </c>
       <c r="AE3" t="n">
-        <v>87470.20840117216</v>
+        <v>100761.1316461497</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.203363322765816e-06</v>
+        <v>1.286828288705148e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.031684027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>79122.17447659378</v>
+        <v>91144.63066100284</v>
       </c>
     </row>
   </sheetData>
